--- a/Texts/Город Сокровищ/Все персонажи/Споинк.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Споинк.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -109,6 +109,36 @@
   </si>
   <si>
     <t>571, 533</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s been much too long! It\'s me,\n[CS:N]Spoink[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re going on an expedition!\nI heard! How fabulous!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, please do come back with\nlots of treasures! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um0807.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давненько не виделись! Это я,\n[CS:N]Споинк[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я уже знаю! Вы пойдёте в\nэкспедицию! Как чудесно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ох, я надеюсь вы вернётесь\nс горой сокровищ! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàâîåîûëï îå âéäåìéòû! Üóï ÿ,\n[CS:N]Òðïéîë[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôçå èîàý! Âú ðïêäæóå â\nüëòðåäéøéý! Ëàë œôäåòîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïö, ÿ îàäåýòû âú âåñîæóåòû\nò ãïñïê òïëñïâéþ! ♪</t>
   </si>
 </sst>
 </file>
@@ -139,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -171,11 +201,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -187,6 +226,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -469,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,17 +635,77 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3">
+        <v>498</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>501</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>504</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>507</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Споинк.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Споинк.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -139,6 +139,102 @@
   </si>
   <si>
     <t xml:space="preserve"> Ïö, ÿ îàäåýòû âú âåñîæóåòû\nò ãïñïê òïëñïâéþ! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1105.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve come into an interesting bit\nof news I can\'t wait to share with you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Have you heard about Eggs,\n[hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eggs are quite rare, I hear.[K] And\nI hear you may get them as rewards for jobs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But as precious as Eggs can be,\nthey can be a burden to look after.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But...[K]worry no more!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s a new shop in town that\nwill take care of your Eggs!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> See that shop in the lower left?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Pokémon named [CS:N]Chansey[CR] runs\nthe shop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you ever get an Egg, [CS:N]Chansey[CR]\nwill take care of it for you, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, [hero] и [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я тут узнал кое-что очень\nинтересное и хочу вам это рассказать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Яйца довольно редко попадаются.\nГоворят, что их можно получить как\nнаграду за задание.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Яйца конечно ценны, но за ними\nочень трудно следить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В городе появилось новое место,\nгде могут позаботиться о твоих Яйцах!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Видите его слева внизу?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, [hero] é [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óôó ôèîàì ëïå-œóï ïœåîû\néîóåñåòîïå é öïœô âàí üóï ñàòòëàèàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿêøà äïâïìûîï ñåäëï ðïðàäàýóòÿ.\nÃïâïñÿó, œóï éö íïçîï ðïìôœéóû ëàë\nîàãñàäô èà èàäàîéå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿêøà ëïîåœîï øåîîú, îï èà îéíé\nïœåîû óñôäîï òìåäéóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ãïñïäå ðïÿâéìïòû îïâïå íåòóï,\nãäå íïãôó ðïèàáïóéóûòÿ ï óâïéö Ÿêøàö!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âéäéóå åãï òìåâà âîéèô?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты знаешь о Яйцах,\n[hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú èîàåšû ï Ÿêøàö,\n[hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но...[K] Нет волненью!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï...[K] Îåó âïìîåîûý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Этим место управляет Покемон\nпо имени [CS:N]Ченси[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóéí íåòóï ôðñàâìÿåó Ðïëåíïî\nðï éíåîé [CS:N]Œåîòé[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé óú ðïìôœéšû Ÿêøï, [CS:N]Œåîòé[CR]\náôäåó ï îæí èàáïóéóûòÿ, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если ты получишь Яйцо, [CS:N]Ченси[CR]\nбудет о нём заботиться, [hero].</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1108.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1111.ssb</t>
   </si>
 </sst>
 </file>
@@ -514,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,17 +791,168 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5">
         <v>507</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="6" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3">
+        <v>427</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="3">
+        <v>430</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="3">
+        <v>433</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>436</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>439</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>442</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>445</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>461</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>476</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5">
+        <v>479</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Споинк.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Споинк.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -235,6 +235,123 @@
   </si>
   <si>
     <t>SCRIPT/T01P01A/um1111.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1303.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There were many [CS:N]Pelipper[CR] flying\nabout, filling the sky!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve never seen so many\n[CS:N]Pelipper[CR] in the sky at once!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В небе летало столько\n[CS:N]Пелипперов[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я ещё никогда не видел столько\n[CS:N]Пелипперов[CR] за раз!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â îåáå ìåóàìï òóïìûëï\n[CS:N]Ðåìéððåñïâ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ åþæ îéëïãäà îå âéäåì òóïìûëï\n[CS:N]Ðåìéððåñïâ[CR] èà ñàè!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1312.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1315.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My thoughts go with you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please catch that dreadful\n[CS:N]Grovyle[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1318.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все мои мысли только о вас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прошу, поймайте этого ужасного\n[CS:N]Гровайла[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå íïé íúòìé óïìûëï ï âàò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïšô, ðïêíàêóå üóïãï ôçàòîïãï\n[CS:N]Ãñïâàêìà[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh... If only I could do something\nthat would be useful…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m so sorry I can only offer\nmy support...[K] Good luck!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1405.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ох... Вот бы я мог сделать\nхоть что-нибудь полезное...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но жаль, что я только могу\nпредложить свою поддержку...[K] Удачи!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïö... Âïó áú ÿ íïã òäåìàóû\nöïóû œóï-îéáôäû ðïìåèîïå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï çàìû, œóï ÿ óïìûëï íïãô\nðñåäìïçéóû òâïý ðïääåñçëô...[K] Ôäàœé!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1501.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1603.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ll be sure to bounce around\nand spread the rumor!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hope it helps lure [CS:N]Grovyle[CR] to\n[CS:P]Crystal Cave[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я буду скакать где только можно\nи распространять слух!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь, это поможет заманить\n[CS:N]Гровайла[CR] в [CS:P]Кристальную Пещеру[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ áôäô òëàëàóû ãäå óïìûëï íïçîï\né ñàòðñïòóñàîÿóû òìôö!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû, üóï ðïíïçåó èàíàîéóû\n[CS:N]Ãñïâàêìà[CR] â [CS:P]Ëñéòóàìûîôý Ðåþåñô[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What do you suppose finally\nhappened to [CS:N]Grovyle[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I do hope this plan works…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1611.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как вы думаете, что всё таки\nпроизошло с [CS:N]Гровайлом[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь этот план сработает...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë âú äôíàåóå, œóï âòæ óàëé\nðñïéèïšìï ò [CS:N]Ãñïâàêìïí[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû üóïó ðìàî òñàáïóàåó...</t>
   </si>
 </sst>
 </file>
@@ -610,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,6 +1072,188 @@
         <v>68</v>
       </c>
     </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="3">
+        <v>402</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="3">
+        <v>405</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="5">
+        <v>408</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="3">
+        <v>380</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="5">
+        <v>383</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="3">
+        <v>358</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="5">
+        <v>361</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="3">
+        <v>336</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5">
+        <v>339</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="3">
+        <v>314</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>317</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Споинк.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Споинк.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="136">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -352,6 +352,81 @@
   </si>
   <si>
     <t xml:space="preserve"> Îàäåýòû üóïó ðìàî òñàáïóàåó...</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m so happy to see you back\nsafe, Team [team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m not very good at figuring out\ncomplicated things…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But you can always count on my\nsupport, Team [team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я так рад, что вы вернулись целыми\nи невредимыми, Команда [team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не очень то разбираюсь в сложных\nвещах...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но вы всегда можете рассчитывать\nна мою поддержку, Команда [team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óàë ñàä, œóï âú âåñîôìéòû øåìúíé\né îåâñåäéíúíé, Ëïíàîäà [team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå ïœåîû óï ñàèáéñàýòû â òìïçîúö\nâåþàö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï âú âòåãäà íïçåóå ñàòòœéóúâàóû\nîà íïý ðïääåñçëô, Ëïíàîäà [team:]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2111.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2203.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hear the whole guild\'s off to\n[CS:P]Brine Cave[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Best of luck to you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я слышал, что вся гильдия скоро\nотправится в [CS:P]Пещеру у Моря[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я желаю вам всем удачи!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òìúšàì, œóï âòÿ ãéìûäéÿ òëïñï\nïóðñàâéóòÿ â [CS:P]Ðåþåñô ô Íïñÿ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ çåìàý âàí âòåí ôäàœé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team [team:] can do it!\nI\'m absolutely positive!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please don\'t fail!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> У Команды [team:] всё\nполучится! Я абсолютно в этом уверен!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прошу, не подведите нас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ô Ëïíàîäú [team:] âòæ\nðïìôœéóòÿ! Ÿ àáòïìýóîï â üóïí ôâåñåî!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïšô, îå ðïäâåäéóå îàò!</t>
   </si>
 </sst>
 </file>
@@ -727,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1240,18 +1315,131 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5">
         <v>317</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="6" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="3">
+        <v>289</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="3">
+        <v>292</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5">
+        <v>295</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="3">
+        <v>267</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5">
+        <v>270</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="3">
+        <v>245</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="3">
+        <v>248</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Споинк.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Споинк.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="155">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -219,12 +219,6 @@
     <t xml:space="preserve"> Îï...[K] Îåó âïìîåîûý!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Этим место управляет Покемон\nпо имени [CS:N]Ченси[CR].</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Üóéí íåòóï ôðñàâìÿåó Ðïëåíïî\nðï éíåîé [CS:N]Œåîòé[CR].</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Åòìé óú ðïìôœéšû Ÿêøï, [CS:N]Œåîòé[CR]\náôäåó ï îæí èàáïóéóûòÿ, [hero].</t>
   </si>
   <si>
@@ -427,6 +421,69 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðñïšô, îå ðïäâåäéóå îàò!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2503.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Этим местом управляет Покемон\nпо имени [CS:N]Ченси[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóéí íåòóïí ôðñàâìÿåó Ðïëåíïî\nðï éíåîé [CS:N]Œåîòé[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve heard! You\'re taking the\nguild\'s graduation exam?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Now, I hear that [CS:N]Wigglytuff[CR]\'s\nGuild has an especially tough exam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, but you\'re up to it, I\'m sure!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне тут кое-что сказали! Вы\nсобираетесь пройти выпускной экзамен?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Говорят, что в Гильдии [CS:N]Виглитаффа[CR]\nневероятно сложный экзамен.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, но я уверен, вы справитесь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå óôó ëïå-œóï òëàèàìé! Âú\nòïáéñàåóåòû ðñïêóé âúðôòëîïê üëèàíåî?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïâïñÿó, œóï â Ãéìûäéé [CS:N]Âéãìéóàõõà[CR]\nîåâåñïÿóîï òìïçîúê üëèàíåî.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, îï ÿ ôâåñåî, âú òðñàâéóåòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Now and then, I hear the sounds\nof tremors from [CS:K]Marowak[CR] Dojo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What\'s he doing in there...?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0111.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Иногда я слышу грохот из Додзё\n[CS:K]Маровака[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что он там делает?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîïãäà ÿ òìúšô ãñïöïó éè Äïäèæ\n[CS:K]Íàñïâàëà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï ïî óàí äåìàåó?..</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us3104.ssb</t>
   </si>
 </sst>
 </file>
@@ -802,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1016,7 +1073,7 @@
     </row>
     <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="3">
         <v>430</v>
@@ -1033,7 +1090,7 @@
     </row>
     <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3">
         <v>433</v>
@@ -1126,10 +1183,10 @@
         <v>48</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -1141,15 +1198,15 @@
         <v>49</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="3">
         <v>402</v>
@@ -1166,121 +1223,121 @@
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24" s="3">
         <v>405</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B25" s="5">
         <v>408</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B26" s="3">
         <v>380</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" s="5">
         <v>383</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B28" s="3">
         <v>358</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29" s="5">
         <v>361</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" s="3">
         <v>336</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -1289,30 +1346,30 @@
         <v>339</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B32" s="3">
         <v>314</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1321,47 +1378,47 @@
         <v>317</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B34" s="3">
         <v>289</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B35" s="3">
         <v>292</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -1370,30 +1427,30 @@
         <v>295</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B37" s="3">
         <v>267</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1402,44 +1459,127 @@
         <v>270</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B39" s="3">
         <v>245</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="4" t="s">
+    </row>
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="3">
+      <c r="B40" s="5">
         <v>248</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>135</v>
+    </row>
+    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="3">
+        <v>220</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B42" s="3">
+        <v>223</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5">
+        <v>226</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="3">
+        <v>198</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="3">
+        <v>201</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Споинк.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Споинк.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="216">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -484,6 +484,189 @@
   </si>
   <si>
     <t>SCRIPT/T01P01A/us3104.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0205.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, is that right?![K] Secret Rank,\nyou say?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It has such a mysterious ring to\nit. How exciting!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0209.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, правда?![K] Секретный Ранг,\nговорите?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Звучит несколько загадочно.\nКак интересно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, ðñàâäà?![K] Òåëñåóîúê Ñàîã,\nãïâïñéóå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èâôœéó îåòëïìûëï èàãàäïœîï.\nËàë éîóåñåòîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh?![K] Team [CS:X]Charm[CR] came\nvisiting?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Where?! Where?!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?![K] Здесь была Команда [CS:X]Шарм[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Где?! Где?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?![K] Èäåòû áúìà Ëïíàîäà [CS:X]Šàñí[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãäå?! Ãäå?!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0408.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your team has done it,\n[hero]! You\'re beyond belief!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you so much!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], твоя команда\nсправилась! Вы невероятны!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо огромное!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], óâïÿ ëïíàîäà\nòðñàâéìàòû! Âú îåâåñïÿóîú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï ïãñïíîïå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I do wish that the women of\nTeam [CS:X]Charm[CR] would come back again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Just once, I would love to\nmeet them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вот бы девушки из Команды [CS:X]Шарм[CR]\nснова сюда пришли.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я бы с радостью повидался с\nними, хоть разок.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïó áú äåâôšëé éè Ëïíàîäú [CS:X]Šàñí[CR]\nòîïâà òýäà ðñéšìé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ áú ò ñàäïòóûý ðïâéäàìòÿ ò\nîéíé, öïóû ñàèïë.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2002.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That poor little [CS:N]Azurill[CR]... It\'s\nquite worrisome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To be locked in a nightmare for\ndays on end...[K] I\'ve never heard of such a thing.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2008.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Бедняжка [CS:N]Азурилл[CR]... Я так\nпереживаю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Застрять в бесконечном кошмаре...[K]\nЯ никогда не слышал о чём-то подобном.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áåäîÿçëà [CS:N]Àèôñéìì[CR]... Ÿ óàë\nðåñåçéâàý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàòóñÿóû â áåòëïîåœîïí ëïšíàñå...[K]\nŸ îéëïãäà îå òìúšàì ï œæí-óï ðïäïáîïí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re entering the [CS:P]nightmare[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ewww...[K] What an awful place it\nmust be.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can\'t begin to imagine such a\nhorrid place.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2011.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы собираетесь попасть в [CS:P]кошмар[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Фууу...[K] Должно быть, это ужасное\nместо.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я даже не смогу представить себе\nтакого жуткого места!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú òïáéñàåóåòû ðïðàòóû â [CS:P]ëïšíàñ[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Õôôô...[K] Äïìçîï áúóû, üóï ôçàòîïå\níåòóï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ äàçå îå òíïãô ðñåäòóàâéóû òåáå\nóàëïãï çôóëïãï íåòóà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/T01P01A/us2103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, my... Things have taken a\nturn for the sinister.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hope something can be done\nbefore all Pokémon get caught in a nightmare…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, нет... Дела стали весьма\nужасны.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь, мы сможем что-то\nпредпринять, прежде чем всех Покемонов\nпоглотит кошмар...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, îåó... Äåìà òóàìé âåòûíà\nôçàòîú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû, íú òíïçåí œóï-óï\nðñåäðñéîÿóû, ðñåçäå œåí âòåö Ðïëåíïîïâ\nðïãìïóéó ëïšíàñ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Everything was [CS:N]Darkrai[CR]\'s doing!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I, for one, am amazed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/T01P01A/us2203.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Во всём виноват [CS:N]Даркрай[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Лично я, поражён!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âï âòæí âéîïâàó [CS:N]Äàñëñàê[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ìéœîï ÿ, ðïñàçæî!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2212.ssb</t>
   </si>
 </sst>
 </file>
@@ -514,7 +697,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -555,11 +738,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -577,6 +769,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -859,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1582,6 +1780,286 @@
         <v>153</v>
       </c>
     </row>
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="3">
+        <v>176</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5">
+        <v>179</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="3">
+        <v>154</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5">
+        <v>157</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="3">
+        <v>132</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="5">
+        <v>135</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="3">
+        <v>110</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5">
+        <v>113</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" s="3">
+        <v>85</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="3">
+        <v>88</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5">
+        <v>91</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" s="3">
+        <v>63</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5">
+        <v>66</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" s="3">
+        <v>41</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5">
+        <v>44</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62" s="3">
+        <v>18</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="3">
+        <v>21</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Споинк.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Споинк.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="217">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -667,6 +667,9 @@
   </si>
   <si>
     <t>SCRIPT/T01P01A/us2212.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2302.ssb</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1063,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2046,7 +2049,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="B63" s="3">
         <v>21</v>
       </c>
